--- a/ExcelDATA/test.xlsx
+++ b/ExcelDATA/test.xlsx
@@ -1,43 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokaz\OneDrive\Desktop\gitProgramKK\basicAutomateLearning\ExcelDATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C629F6-CFB7-4C79-910D-983EE6818ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="12585" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>accountNo</t>
+  </si>
+  <si>
+    <t>resultCode</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>32400050511568</t>
+  </si>
+  <si>
+    <t>32400050511572</t>
+  </si>
+  <si>
+    <t>32400050511574</t>
+  </si>
+  <si>
+    <t>32400050511576</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,21 +87,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -336,18 +358,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelDATA/test.xlsx
+++ b/ExcelDATA/test.xlsx
@@ -1,74 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git automate\ExcelDATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="12585" activeTab="0"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>accountNo</t>
-  </si>
-  <si>
-    <t>resultCode</t>
-  </si>
-  <si>
-    <t>errorCode</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>32400050511568</t>
-  </si>
-  <si>
-    <t>32400050511572</t>
-  </si>
-  <si>
-    <t>32400050511574</t>
-  </si>
-  <si>
-    <t>32400050511576</t>
+    <t>gaga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,12 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -358,169 +338,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
